--- a/SEIR_2_wave/Matlab/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/Matlab/data/age_deaths_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuzana.mucka\Documents\GitHub\corona\SEIR_2_wave\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\Matlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC254BB-B177-4DCD-B4DF-48E6E636CE10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859729C0-7F9F-4A8E-97DD-85F08A6162FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="12120" windowHeight="9684" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age_deaths_cases" sheetId="1" r:id="rId1"/>
@@ -2143,13 +2143,13 @@
       <selection activeCell="A138" sqref="A1:N140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44075</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.11009401286491836</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44076</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>0.12014652014652015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44077</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0.14231499051233396</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0.14036296806799908</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44079</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0.13649268399213801</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44080</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>0.13584743946860939</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44081</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0.13584986137769248</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44082</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.13493723849372385</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44083</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>0.13296903460837886</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44084</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0.13264309435436608</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>0.13006597549481622</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44086</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>0.13022157646204141</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44087</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>0.12945389435989257</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44088</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0.13455934905712244</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44089</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>0.14544052438789282</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44090</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0.17394054395951927</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44091</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>0.16775086427638913</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44092</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>0.16188667171160556</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44093</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>0.16054697391744746</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44094</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>0.16054983617363658</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44095</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>0.15790527908840027</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44096</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0.155130540376442</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44097</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0.15386598945106467</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44098</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>0.15087653157398681</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44099</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>0.15105702869596804</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44100</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0.15016651745747539</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0.14930573685181509</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44102</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>0.15458343732679011</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44103</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0.1586686195112145</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0.15888942041861073</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44105</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>0.15448169281978125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44106</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0.15798449500525574</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44107</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.15424807611274977</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44108</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0.15223129051885109</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0.15690029591447119</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44110</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0.1549121369389056</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44111</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0.15641922676386358</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44112</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0.15708087830168513</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44113</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>0.159854199792511</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44114</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0.15428211586901763</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44115</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0.15484407126617936</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44116</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>0.15430767632699699</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44117</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>0.15800237301120176</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0.15842879711499491</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44119</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0.15494034671412563</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44120</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0.15525186796292453</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44121</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>0.15135583166971356</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44122</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0.15294610037485898</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44123</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0.15438345955042673</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44124</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>0.1544678169150743</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44125</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>0.15102947700405975</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44126</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0.14893989219503317</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44127</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0.15171969528687723</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44128</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0.15281860037183218</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44129</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0.15356185863185534</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44130</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>0.15367830984622616</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44131</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>0.1538806295270666</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44132</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.15542181625416374</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44133</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0.15294521955848422</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44134</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0.1501902638161951</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44135</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0.14964098772985282</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44136</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0.14918856510992584</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44137</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0.14875104653504168</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44138</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>0.14967107878942099</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44139</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>0.14897760937385884</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44140</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0.14652076403209055</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44141</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0.14437654689882529</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44142</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0.14470677431021992</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44143</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>0.1460759063342941</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44144</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>0.14660850094652128</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44145</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>0.14724931053422546</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44146</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0.14888861779468462</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44147</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>0.15127306974962609</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44148</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>0.15030995107796286</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44149</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0.15076211535092912</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44150</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0.14937639612371184</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44151</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0.14897628227278345</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44152</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>0.14910677366817718</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44153</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>0.14946242989152678</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44154</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0.14947572695376971</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44155</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0.15052182995427557</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44156</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0.15059041643559715</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44157</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>0.15041160087859595</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44158</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>0.15103356829411563</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44159</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0.1521452475352737</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44160</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0.15263639302005627</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44161</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>0.15347622355487198</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44162</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0.15423503439204539</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44163</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0.15466620594333103</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44164</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>0.15577404645715362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44165</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>0.15681844008764481</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0.1582484536666833</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44167</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>0.15867712926716004</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44168</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.15834516245390842</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44169</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>0.15904506920559128</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44170</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0.15989913513309881</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44171</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0.16011825548634165</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44172</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>0.15956835961068602</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44173</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>0.16018450231985759</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>0.16136392231469618</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44175</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>0.1617853133985388</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44176</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0.16328250015768869</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44177</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0.16330687512829012</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44178</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>0.16327251455677344</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44179</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>0.16326032424924683</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44180</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>0.16444690125040365</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44181</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0.16405887501054986</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44182</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0.16512175822283046</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44183</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>0.16383115999823236</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44184</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0.16524989885916416</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44185</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>0.16492236735728699</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44186</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>0.16567137355913583</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44187</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>0.16600611851783473</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44188</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>0.16590064342791461</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44189</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>0.16594123922624532</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44190</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0.16565766368004647</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44191</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>0.16709169039048191</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44192</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>0.16712400360260768</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>0.16709743422408108</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44194</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>0.1680546236988964</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44195</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>0.16795126669618848</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44196</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>0.1685368405758515</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44197</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0.16897649450681212</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44198</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.16902337841875356</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44199</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>0.1694288403795145</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44200</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>0.16886879801392501</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44201</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0.16918290844501468</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44202</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>1.0009957282553568</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44203</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44204</v>
       </c>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <f>A131+1</f>
         <v>44205</v>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <f>A132+1</f>
         <v>44206</v>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <f>A133+1</f>
         <v>44207</v>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <f>A134+1</f>
         <v>44208</v>
@@ -8387,7 +8387,7 @@
       </c>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <f>A135+1</f>
         <v>44209</v>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <f>1+A136</f>
         <v>44210</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <f t="shared" ref="A138:A140" si="30">1+A137</f>
         <v>44211</v>
@@ -8543,7 +8543,7 @@
       </c>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <f t="shared" si="30"/>
         <v>44212</v>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <f t="shared" si="30"/>
         <v>44213</v>
@@ -8656,18 +8656,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167:C173"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174:C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -8706,7 +8706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44075</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>0.11009401286491836</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44076</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0.12014652014652015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44077</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>0.14231499051233396</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44078</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>0.14036296806799908</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44079</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>0.13649268399213801</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44080</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0.13584743946860939</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44081</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>0.13584986137769248</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44082</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0.13493723849372385</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44083</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>0.13296903460837886</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44084</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>0.13264309435436608</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44085</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0.13006597549481622</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44086</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>0.13022157646204141</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44087</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>0.12945389435989257</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44088</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>0.13455934905712244</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44089</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>0.14544052438789282</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44090</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0.17394054395951927</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44091</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>0.16775086427638913</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44092</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>0.16188667171160556</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44093</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>0.16054697391744746</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44094</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>0.16054983617363658</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44095</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.15790527908840027</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44096</v>
       </c>
@@ -9664,7 +9664,7 @@
         <v>0.155130540376442</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44097</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0.15386598945106467</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44098</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0.15087653157398681</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44099</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>0.15105702869596804</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44100</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>0.15016651745747539</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44101</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>0.14930573685181509</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44102</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.15458343732679011</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44103</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>0.1586686195112145</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44104</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>0.15888942041861073</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44105</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>0.15448169281978125</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44106</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0.15798449500525574</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44107</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>0.15424807611274977</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44108</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0.15223129051885109</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44109</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>0.15690029591447119</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44110</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>0.1549121369389056</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44111</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>0.15641922676386358</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44112</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>0.15708087830168513</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44113</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>0.159854199792511</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44114</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0.15428211586901763</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44115</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>0.15484407126617936</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44116</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>0.15430767632699699</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44117</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>0.15800237301120176</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44118</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0.15842879711499491</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44119</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>0.15494034671412563</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44120</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>0.15525186796292453</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44121</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>0.15135583166971356</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44122</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>0.15294610037485898</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44123</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>0.15438345955042673</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44124</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>0.1544678169150743</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44125</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>0.15102947700405975</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44126</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>0.14893989219503317</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44127</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>0.15171969528687723</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44128</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>0.15281860037183218</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44129</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>0.15356185863185534</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44130</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>0.15367830984622616</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44131</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0.1538806295270666</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44132</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>0.15542181625416374</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44133</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>0.15294521955848422</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44134</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>0.1501902638161951</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44135</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>0.14964098772985282</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44136</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0.14918856510992584</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44137</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>0.14875104653504168</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44138</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>0.14967107878942099</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44139</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>0.14897760937385884</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44140</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>0.14652076403209055</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44141</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.14437654689882529</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44142</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>0.14470677431021992</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44143</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>0.1460759063342941</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44144</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>0.14660850094652128</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44145</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>0.14724931053422546</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44146</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>0.14888861779468462</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44147</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0.15127306974962609</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44148</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>0.15030995107796286</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44149</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0.15076211535092912</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44150</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>0.14937639612371184</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44151</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>0.14897628227278345</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44152</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>0.14910677366817718</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44153</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>0.14946242989152678</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44154</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>0.14947572695376971</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44155</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>0.15052182995427557</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44156</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>0.15059041643559715</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44157</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>0.15041160087859595</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44158</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>0.15103356829411563</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44159</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>0.1521452475352737</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44160</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>0.15263639302005627</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44161</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>0.15347622355487198</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44162</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>0.15423503439204539</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44163</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>0.15466620594333103</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44164</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>0.15577404645715362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44165</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>0.15681844008764481</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44166</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>0.1582484536666833</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44167</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>0.15867712926716004</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44168</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>0.15834516245390842</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44169</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>0.15904506920559128</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44170</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0.15989913513309881</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44171</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>0.16011825548634165</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44172</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>0.15956835961068602</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44173</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>0.16018450231985759</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>0.16136392231469618</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44175</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>0.1617853133985388</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44176</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0.16328250015768869</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44177</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>0.16330687512829012</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44178</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0.16327251455677344</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44179</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>0.16326032424924683</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44180</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>0.16444690125040365</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44181</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>0.16405887501054986</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44182</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>0.16512175822283046</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44183</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0.16383115999823236</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44184</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>0.16524989885916416</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44185</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>0.16492236735728699</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44186</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>0.16567137355913583</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44187</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.16600611851783473</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44188</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>0.16590064342791461</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44189</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>0.16594123922624532</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44190</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>0.16565766368004647</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44191</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>0.16709169039048191</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44192</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>0.16712400360260768</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44193</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>0.16709743422408108</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44194</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>0.1680546236988964</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44195</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>0.16795126669618848</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44196</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>0.1685368405758515</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44197</v>
       </c>
@@ -14315,7 +14315,7 @@
         <v>0.16897649450681212</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44198</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>0.16902337841875356</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44199</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>0.1694288403795145</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44200</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>0.16886879801392501</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44201</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>0.16918290844501468</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44202</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1.0009957282553568</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44203</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>0.17019618911031342</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44204</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0.1703656582647646</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <f>A131+1</f>
         <v>44205</v>
@@ -14707,7 +14707,7 @@
         <v>0.1705352961644413</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <f>A132+1</f>
         <v>44206</v>
@@ -14757,7 +14757,7 @@
         <v>0.17070510297736788</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <f>A133+1</f>
         <v>44207</v>
@@ -14807,7 +14807,7 @@
         <v>0.17087507887173603</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <f>A134+1</f>
         <v>44208</v>
@@ -14857,7 +14857,7 @@
         <v>0.17104522401590494</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <f>A135+1</f>
         <v>44209</v>
@@ -14907,7 +14907,7 @@
         <v>0.17121553857840141</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <f>1+A136</f>
         <v>44210</v>
@@ -14957,7 +14957,7 @@
         <v>0.17138602272792006</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <f t="shared" ref="A138:A160" si="21">1+A137</f>
         <v>44211</v>
@@ -15007,7 +15007,7 @@
         <v>0.17155667663332347</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <f t="shared" si="21"/>
         <v>44212</v>
@@ -15057,7 +15057,7 @@
         <v>0.17172750046364238</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <f t="shared" si="21"/>
         <v>44213</v>
@@ -15107,7 +15107,7 @@
         <v>0.17189849438807581</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <f t="shared" si="21"/>
         <v>44214</v>
@@ -15135,7 +15135,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <f t="shared" si="21"/>
         <v>44215</v>
@@ -15163,7 +15163,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <f t="shared" si="21"/>
         <v>44216</v>
@@ -15191,7 +15191,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <f t="shared" si="21"/>
         <v>44217</v>
@@ -15219,7 +15219,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <f t="shared" si="21"/>
         <v>44218</v>
@@ -15247,7 +15247,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <f t="shared" si="21"/>
         <v>44219</v>
@@ -15275,7 +15275,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <f t="shared" si="21"/>
         <v>44220</v>
@@ -15303,7 +15303,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <f t="shared" si="21"/>
         <v>44221</v>
@@ -15331,7 +15331,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <f t="shared" si="21"/>
         <v>44222</v>
@@ -15359,7 +15359,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <f t="shared" si="21"/>
         <v>44223</v>
@@ -15387,7 +15387,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <f t="shared" si="21"/>
         <v>44224</v>
@@ -15415,7 +15415,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <f t="shared" si="21"/>
         <v>44225</v>
@@ -15443,7 +15443,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <f t="shared" si="21"/>
         <v>44226</v>
@@ -15471,7 +15471,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <f t="shared" si="21"/>
         <v>44227</v>
@@ -15499,7 +15499,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <f t="shared" si="21"/>
         <v>44228</v>
@@ -15527,7 +15527,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <f t="shared" si="21"/>
         <v>44229</v>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <f t="shared" si="21"/>
         <v>44230</v>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <f t="shared" si="21"/>
         <v>44231</v>
@@ -15614,7 +15614,7 @@
       </c>
       <c r="I158" s="2"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <f t="shared" si="21"/>
         <v>44232</v>
@@ -15643,7 +15643,7 @@
       </c>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <f t="shared" si="21"/>
         <v>44233</v>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I160" s="2"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <f>A160+1</f>
         <v>44234</v>
@@ -15701,9 +15701,9 @@
       </c>
       <c r="I161" s="2"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f t="shared" ref="A162:A173" si="34">A161+1</f>
+        <f t="shared" ref="A162:A180" si="34">A161+1</f>
         <v>44235</v>
       </c>
       <c r="B162">
@@ -15730,7 +15730,7 @@
       </c>
       <c r="I162" s="2"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <f t="shared" si="34"/>
         <v>44236</v>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="I163" s="2"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <f t="shared" si="34"/>
         <v>44237</v>
@@ -15788,7 +15788,7 @@
       </c>
       <c r="I164" s="2"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <f t="shared" si="34"/>
         <v>44238</v>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <f t="shared" si="34"/>
         <v>44239</v>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="I166" s="2"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <f t="shared" si="34"/>
         <v>44240</v>
@@ -15874,7 +15874,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <f t="shared" si="34"/>
         <v>44241</v>
@@ -15902,7 +15902,7 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <f t="shared" si="34"/>
         <v>44242</v>
@@ -15930,7 +15930,7 @@
         <v>0.85040797824115999</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <f t="shared" si="34"/>
         <v>44243</v>
@@ -15958,35 +15958,35 @@
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <f t="shared" si="34"/>
         <v>44244</v>
       </c>
       <c r="B171">
         <f t="shared" si="35"/>
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C171">
         <f t="shared" si="36"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D171">
         <f t="shared" si="32"/>
-        <v>6411</v>
+        <v>6428</v>
       </c>
       <c r="E171">
         <f t="shared" si="33"/>
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="F171">
-        <v>7539</v>
+        <v>7559</v>
       </c>
       <c r="G171">
         <v>0.85040797824116043</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <f t="shared" si="34"/>
         <v>44245</v>
@@ -16001,20 +16001,20 @@
       </c>
       <c r="D172">
         <f t="shared" si="32"/>
-        <v>6482</v>
+        <v>6499</v>
       </c>
       <c r="E172">
         <f t="shared" si="33"/>
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F172">
-        <v>7622</v>
+        <v>7642</v>
       </c>
       <c r="G172">
         <v>0.85040797824115999</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <f t="shared" si="34"/>
         <v>44246</v>
@@ -16029,16 +16029,212 @@
       </c>
       <c r="D173">
         <f t="shared" si="32"/>
-        <v>6552</v>
+        <v>6569</v>
       </c>
       <c r="E173">
         <f t="shared" si="33"/>
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="F173">
-        <v>7705</v>
+        <v>7725</v>
       </c>
       <c r="G173">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <f t="shared" si="34"/>
+        <v>44247</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ref="B174:B180" si="37">D174-D173</f>
+        <v>79</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174:C180" si="38">E174-E173</f>
+        <v>14</v>
+      </c>
+      <c r="D174">
+        <f t="shared" ref="D174:D180" si="39">ROUND(G174*F174,0)</f>
+        <v>6648</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ref="E174:E180" si="40">F174-D174</f>
+        <v>1170</v>
+      </c>
+      <c r="F174">
+        <v>7818</v>
+      </c>
+      <c r="G174">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <f t="shared" si="34"/>
+        <v>44248</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="37"/>
+        <v>80</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="38"/>
+        <v>13</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="39"/>
+        <v>6728</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="40"/>
+        <v>1183</v>
+      </c>
+      <c r="F175">
+        <v>7911</v>
+      </c>
+      <c r="G175">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <f t="shared" si="34"/>
+        <v>44249</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="37"/>
+        <v>87</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="39"/>
+        <v>6815</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="40"/>
+        <v>1199</v>
+      </c>
+      <c r="F176">
+        <v>8014</v>
+      </c>
+      <c r="G176">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <f t="shared" si="34"/>
+        <v>44250</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="37"/>
+        <v>103</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="39"/>
+        <v>6918</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="40"/>
+        <v>1217</v>
+      </c>
+      <c r="F177">
+        <v>8135</v>
+      </c>
+      <c r="G177">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <f t="shared" si="34"/>
+        <v>44251</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="37"/>
+        <v>80</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="39"/>
+        <v>6998</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="40"/>
+        <v>1231</v>
+      </c>
+      <c r="F178">
+        <v>8229</v>
+      </c>
+      <c r="G178">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <f t="shared" si="34"/>
+        <v>44252</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="37"/>
+        <v>105</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="39"/>
+        <v>7103</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="40"/>
+        <v>1249</v>
+      </c>
+      <c r="F179">
+        <v>8352</v>
+      </c>
+      <c r="G179">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <f t="shared" si="34"/>
+        <v>44253</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="37"/>
+        <v>121</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="38"/>
+        <v>22</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="39"/>
+        <v>7224</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="40"/>
+        <v>1271</v>
+      </c>
+      <c r="F180">
+        <v>8495</v>
+      </c>
+      <c r="G180">
         <v>0.85040797824115999</v>
       </c>
     </row>

--- a/SEIR_2_wave/Matlab/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/Matlab/data/age_deaths_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\Matlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859729C0-7F9F-4A8E-97DD-85F08A6162FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFE3FB-C0CC-429B-9BBF-0328767CED18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8656,10 +8656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174:C180"/>
+      <selection activeCell="B181" sqref="B181:E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f t="shared" ref="A162:A180" si="34">A161+1</f>
+        <f t="shared" ref="A162:A182" si="34">A161+1</f>
         <v>44235</v>
       </c>
       <c r="B162">
@@ -16238,6 +16238,62 @@
         <v>0.85040797824115999</v>
       </c>
     </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <f t="shared" si="34"/>
+        <v>44254</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ref="B181:B182" si="41">D181-D180</f>
+        <v>115</v>
+      </c>
+      <c r="C181">
+        <f t="shared" ref="C181:C182" si="42">E181-E180</f>
+        <v>20</v>
+      </c>
+      <c r="D181">
+        <f t="shared" ref="D181:D182" si="43">ROUND(G181*F181,0)</f>
+        <v>7339</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ref="E181:E182" si="44">F181-D181</f>
+        <v>1291</v>
+      </c>
+      <c r="F181">
+        <v>8630</v>
+      </c>
+      <c r="G181">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <f t="shared" si="34"/>
+        <v>44255</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="41"/>
+        <v>95</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="42"/>
+        <v>17</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="43"/>
+        <v>7434</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="44"/>
+        <v>1308</v>
+      </c>
+      <c r="F182">
+        <v>8742</v>
+      </c>
+      <c r="G182">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SEIR_2_wave/Matlab/data/age_deaths_cases.xlsx
+++ b/SEIR_2_wave/Matlab/data/age_deaths_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\corona\SEIR_2_wave\Matlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFE3FB-C0CC-429B-9BBF-0328767CED18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25AFFD3-0EBE-4251-B740-2685D7A52F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8656,10 +8656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FFB7CF-60C4-4633-A46C-C73CF58CEDF4}">
-  <dimension ref="A1:N182"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181:E182"/>
+      <selection activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <f t="shared" ref="A162:A182" si="34">A161+1</f>
+        <f t="shared" ref="A162:A183" si="34">A161+1</f>
         <v>44235</v>
       </c>
       <c r="B162">
@@ -16294,6 +16294,34 @@
         <v>0.85040797824115999</v>
       </c>
     </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <f t="shared" si="34"/>
+        <v>44256</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ref="B183" si="45">D183-D182</f>
+        <v>122</v>
+      </c>
+      <c r="C183">
+        <f t="shared" ref="C183" si="46">E183-E182</f>
+        <v>21</v>
+      </c>
+      <c r="D183">
+        <f t="shared" ref="D183" si="47">ROUND(G183*F183,0)</f>
+        <v>7556</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ref="E183" si="48">F183-D183</f>
+        <v>1329</v>
+      </c>
+      <c r="F183">
+        <v>8885</v>
+      </c>
+      <c r="G183">
+        <v>0.85040797824115999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
